--- a/tests/data/indicator_dak_input.xlsx
+++ b/tests/data/indicator_dak_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmanko/code/who_l3_smart_tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC724CBC-4C8E-7043-9D51-86945F4DC16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E7E2FA-32C7-B242-946E-B25FD950F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1602">
   <si>
     <t>Sheet name</t>
   </si>
@@ -5182,6 +5182,74 @@
   </si>
   <si>
     <t>WHO/UCN/HHS/SIA/2023.29  – © WHO 2023. Some rights reserved. This work is available under the CC BY-NC-SA 3.0 IGO licence.</t>
+  </si>
+  <si>
+    <t>HIV.IND.19</t>
+  </si>
+  <si>
+    <t>HTS.2</t>
+  </si>
+  <si>
+    <t>HTS test volume and positivity</t>
+  </si>
+  <si>
+    <t>Number of HIV tests performed (volume) and the % of HIV-positive results returned to people (positivity)</t>
+  </si>
+  <si>
+    <t>COUNT of tests with "HIV test result"='HIV-positive' AND (("Date HIV test results returned" in the reporting period) OR ("HIV diagnosis date" in the reporting period))</t>
+  </si>
+  <si>
+    <t>Self-testing</t>
+  </si>
+  <si>
+    <t>COUNT of tests with "HIV test date" AND "Date HIV test results returned" in the reporting period</t>
+  </si>
+  <si>
+    <t>Gender
+Age
+Key population member type
+TB diagnosis result
+Presumptive TB</t>
+  </si>
+  <si>
+    <t>Date HIV test results returned
+HIV diagnosis date
+HIV test date
+HIV test result</t>
+  </si>
+  <si>
+    <t>• Gender (female, male, other*)
+• Age (0–4, 5–9, 10–14, 15–19, 20–24, 25–29, 30–34, 35–39, 40–44, 45–49, 50+ years)**
+• Key populations (men who have sex with men, people living in prisons and other closed settings, people who inject drugs, sex workers, trans and gender diverse people)***
+• TB status (presumptive TB, diagnosed TB, none)
+• Testing entry point:
+- Facility-level testing: Provider-initiated testing and counselling in clinics or emergency facilities, ANC clinics (including labour and delivery), voluntary counselling and testing (within a health facility setting), family planning clinics (only in high HIV burden settings), TB clinics, other facility-level testing
+- Community-level testing: Mobile testing (for example, through vans or temporary testing facilities), voluntary counselling and testing centres (not within a health facility setting), other community-based testing.
+• Cities and other administrative regions of epidemiologic importance</t>
+  </si>
+  <si>
+    <t>* The category of other includes trans and gender diverse people who choose an identity other than male or female.
+**  Recommended in settings with robust electronic health information systems.
+*** Where feasible and data security and confidentiality can be ensured (see monitoring considerations in section 3.8 of the WHO HIV SI Guidelines on key population for further guidance and section 6.4 on maintaining data privacy, security and confidentiality.)</t>
+  </si>
+  <si>
+    <t>GAM2023 2.5</t>
+  </si>
+  <si>
+    <t>Similar to GF HTS-4</t>
+  </si>
+  <si>
+    <t>HIV testing services</t>
+  </si>
+  <si>
+    <t>This indicator measures HIV test volume and positivity across service delivery approaches and populations.</t>
+  </si>
+  <si>
+    <t>• Knowledge of HIV status is the entry point for people living with HIV to treatment and the continuum of care, and for those who test HIV-negative and remain at risk to prevention interventions.
+• Testing volume disaggregated by age, sex, testing approach and HIV status helps to assess the gaps among various settings, contexts and populations and better target service delivery.</t>
+  </si>
+  <si>
+    <t>For the numerator and denominator: Patient monitoring tools, for example, HIV testing service records, HTS or lab registers, logbooks and reporting forms at facility and community levels or EMRs. Reported data should be a count of the number of tests conducted and their results were returned to a person and not the number of unique persons who tested during the reporting period. The method of measurement intends to prevent double counting when multiple assays are used to confirm an HIV-positive diagnosis according to the national testing algorithm. This indicator does not include self-testing.</t>
   </si>
 </sst>
 </file>
@@ -6078,11 +6146,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6501,60 +6569,63 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="350" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="395" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>1585</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>1586</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>1587</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>1588</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>1589</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1590</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>163</v>
+        <v>1591</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1590</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>167</v>
+        <v>1592</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>172</v>
+        <v>1593</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>224</v>
+        <v>1594</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>229</v>
+        <v>1595</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>230</v>
       </c>
       <c r="P6" s="1">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>232</v>
+        <v>1596</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>239</v>
+        <v>1597</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="U6" s="1" t="b">
         <v>0</v>
@@ -6566,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="X6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1" t="b">
         <v>0</v>
@@ -6575,15 +6646,101 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="350" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" s="1">
+        <v>329</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>325</v>
       </c>
     </row>
